--- a/DEFECTREPORT.xlsx
+++ b/DEFECTREPORT.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16478\Documents\ISQTB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joyce Ann\Desktop\TESTCASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D435EE1C-88BF-41A3-836A-FEFADD77537D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC9F60B-E649-4F78-83E4-66CE1EBCD9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{49E88A24-74D9-4CD2-A1B7-07A991D32DD3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{49E88A24-74D9-4CD2-A1B7-07A991D32DD3}"/>
   </bookViews>
   <sheets>
     <sheet name="DEFECT REPORTING" sheetId="1" r:id="rId1"/>
+    <sheet name="DEFECT REPORTING1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,8 +63,35 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={89F4FA3A-250E-4045-8615-469C0CE29886}</author>
+    <author>tc={BD62C47A-58F7-4D16-B52D-0C47E9C81B50}</author>
+  </authors>
+  <commentList>
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{89F4FA3A-250E-4045-8615-469C0CE29886}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    URGENT OR LOW</t>
+      </text>
+    </comment>
+    <comment ref="A10" authorId="1" shapeId="0" xr:uid="{BD62C47A-58F7-4D16-B52D-0C47E9C81B50}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    CRITICAL OR NON-CRITICAL</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>SCENARIO: " I TRIED TO UPLOAD MY PROFILE PHOTO ON FACEBOOK AND I AM GETTING A SYSTEM ERROR"</t>
   </si>
@@ -114,13 +142,55 @@
   </si>
   <si>
     <t>OPEN</t>
+  </si>
+  <si>
+    <t>FB_1_ID</t>
+  </si>
+  <si>
+    <t>USER TRIED TO UPLOAD THEE PROFILE PHOTO ON FACEBOOK AND GETTING A SYSTEM ERROR</t>
+  </si>
+  <si>
+    <t>2024 Metaverse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need to upload the photo successfully </t>
+  </si>
+  <si>
+    <t>Cannot upload photo on Facebook due the large file</t>
+  </si>
+  <si>
+    <t>Joyce Ann Mejia</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Windows 11</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>User Tried to upload the profile photo on Facebook and getting a system error</t>
+  </si>
+  <si>
+    <t>A system error run to file due to large file</t>
+  </si>
+  <si>
+    <t>1. Login to Facebook 2. Enter Username and Password 3. Go to Profile 4. Select the Camera Icon 5. Upload Photo 6.Click the upload button 7. Click the submit button 8. System Error- Too Much Large File</t>
+  </si>
+  <si>
+    <t>Trisha Macion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +213,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -191,11 +267,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -222,9 +303,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -262,7 +343,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -368,7 +449,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -510,7 +591,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -527,12 +608,23 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A9" dT="2023-01-08T05:50:09.26" personId="{DDE11056-04C7-4C0A-83B5-A459906939AC}" id="{89F4FA3A-250E-4045-8615-469C0CE29886}">
+    <text>URGENT OR LOW</text>
+  </threadedComment>
+  <threadedComment ref="A10" dT="2023-01-08T05:49:59.30" personId="{DDE11056-04C7-4C0A-83B5-A459906939AC}" id="{BD62C47A-58F7-4D16-B52D-0C47E9C81B50}">
+    <text>CRITICAL OR NON-CRITICAL</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9706DFCF-50A0-4E14-B8BB-7CD2E3D1B0D1}">
   <dimension ref="B2:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -628,4 +720,141 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2DEA125-6588-435A-9F8A-E24AD4EC781F}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="79.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6">
+        <v>45570</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/DEFECTREPORT.xlsx
+++ b/DEFECTREPORT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joyce Ann\Desktop\TESTCASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC9F60B-E649-4F78-83E4-66CE1EBCD9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC24F088-FFBF-4205-B94C-9CC0E7FA2AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{49E88A24-74D9-4CD2-A1B7-07A991D32DD3}"/>
   </bookViews>
@@ -190,7 +190,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,12 +213,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -275,8 +269,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -727,7 +725,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -817,7 +815,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="6">
@@ -849,7 +847,7 @@
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="5" t="s">
+      <c r="B21" t="s">
         <v>18</v>
       </c>
     </row>
